--- a/test/XAMS_Comprehensive_Test_Report.xlsx
+++ b/test/XAMS_Comprehensive_Test_Report.xlsx
@@ -460,10 +460,10 @@
         <v>✅ Passed Tests</v>
       </c>
       <c r="B5" t="str">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C5" t="str">
-        <v>52.2%</v>
+        <v>0.0%</v>
       </c>
     </row>
     <row r="6">
@@ -471,10 +471,10 @@
         <v>❌ Failed Tests</v>
       </c>
       <c r="B6" t="str">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C6" t="str">
-        <v>47.8%</v>
+        <v>100.0%</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         <v>🔴 NEEDS WORK</v>
       </c>
       <c r="C9" t="str">
-        <v>52.2% Pass Rate</v>
+        <v>0.0% Pass Rate</v>
       </c>
     </row>
     <row r="10">
@@ -823,10 +823,10 @@
         <v>Generated On</v>
       </c>
       <c r="B38" t="str">
-        <v>9/4/2025</v>
+        <v>9/7/2025</v>
       </c>
       <c r="C38" t="str">
-        <v>9:23:55 PM</v>
+        <v>11:04:46 AM</v>
       </c>
     </row>
     <row r="39">
@@ -947,16 +947,16 @@
         <v>❌ Fail</v>
       </c>
       <c r="I2" t="str">
-        <v>14ms</v>
+        <v>0ms</v>
       </c>
       <c r="J2" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K2" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L2" t="str">
-        <v>GET /api/auth/me - Status: 500 (14ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M2" t="str">
         <v>📷 No screenshots</v>
@@ -988,16 +988,16 @@
         <v>❌ Fail</v>
       </c>
       <c r="I3" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="J3" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K3" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L3" t="str">
-        <v>GET /api/auth/me - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M3" t="str">
         <v>📷 No screenshots</v>
@@ -1029,16 +1029,16 @@
         <v>❌ Fail</v>
       </c>
       <c r="I4" t="str">
-        <v>2ms</v>
+        <v>0ms</v>
       </c>
       <c r="J4" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K4" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L4" t="str">
-        <v>POST /api/auth/sign-in - Status: 422 (2ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M4" t="str">
         <v>📷 No screenshots</v>
@@ -1067,19 +1067,19 @@
         <v>🖥️ Backend</v>
       </c>
       <c r="H5" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I5" t="str">
-        <v>2ms</v>
+        <v>0ms</v>
       </c>
       <c r="J5" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K5" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L5" t="str">
-        <v>GET /api/course - Status: 200 (2ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M5" t="str">
         <v>📷 No screenshots</v>
@@ -1111,16 +1111,16 @@
         <v>❌ Fail</v>
       </c>
       <c r="I6" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="J6" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K6" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L6" t="str">
-        <v>GET /api/auth/me - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M6" t="str">
         <v>📷 No screenshots</v>
@@ -1152,16 +1152,16 @@
         <v>❌ Fail</v>
       </c>
       <c r="I7" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="J7" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K7" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L7" t="str">
-        <v>POST /api/course - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M7" t="str">
         <v>📷 No screenshots</v>
@@ -1190,19 +1190,19 @@
         <v>🖥️ Backend</v>
       </c>
       <c r="H8" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I8" t="str">
-        <v>2ms</v>
+        <v>0ms</v>
       </c>
       <c r="J8" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K8" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L8" t="str">
-        <v>GET /api/course - Status: 200 (2ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M8" t="str">
         <v>📷 No screenshots</v>
@@ -1234,16 +1234,16 @@
         <v>❌ Fail</v>
       </c>
       <c r="I9" t="str">
-        <v>3ms</v>
+        <v>0ms</v>
       </c>
       <c r="J9" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K9" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L9" t="str">
-        <v>POST /api/course - Status: 500 (3ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M9" t="str">
         <v>📷 No screenshots</v>
@@ -1275,16 +1275,16 @@
         <v>❌ Fail</v>
       </c>
       <c r="I10" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="J10" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K10" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L10" t="str">
-        <v>PATCH /api/course/507f1f77bcf86cd799439011 - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M10" t="str">
         <v>📷 No screenshots</v>
@@ -1316,16 +1316,16 @@
         <v>❌ Fail</v>
       </c>
       <c r="I11" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="J11" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K11" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L11" t="str">
-        <v>DELETE /api/course/507f1f77bcf86cd799439011 - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M11" t="str">
         <v>📷 No screenshots</v>
@@ -1354,19 +1354,19 @@
         <v>🖥️ Backend</v>
       </c>
       <c r="H12" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I12" t="str">
-        <v>2ms</v>
+        <v>0ms</v>
       </c>
       <c r="J12" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K12" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L12" t="str">
-        <v>GET /api/course - Status: 200 (2ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M12" t="str">
         <v>📷 No screenshots</v>
@@ -1395,19 +1395,19 @@
         <v>🖥️ Backend</v>
       </c>
       <c r="H13" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I13" t="str">
-        <v>2ms</v>
+        <v>0ms</v>
       </c>
       <c r="J13" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K13" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L13" t="str">
-        <v>GET /api/course - Status: 200 (2ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M13" t="str">
         <v>📷 No screenshots</v>
@@ -1436,19 +1436,19 @@
         <v>🖥️ Backend</v>
       </c>
       <c r="H14" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I14" t="str">
-        <v>2ms</v>
+        <v>0ms</v>
       </c>
       <c r="J14" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K14" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L14" t="str">
-        <v>GET /api/course - Status: 200 (2ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M14" t="str">
         <v>📷 No screenshots</v>
@@ -1480,16 +1480,16 @@
         <v>❌ Fail</v>
       </c>
       <c r="I15" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="J15" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K15" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L15" t="str">
-        <v>GET /api/user - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M15" t="str">
         <v>📷 No screenshots</v>
@@ -1527,10 +1527,10 @@
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K16" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L16" t="str">
-        <v>PATCH /api/user/507f1f77bcf86cd799439011 - Status: 500 (0ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M16" t="str">
         <v>📷 No screenshots</v>
@@ -1568,10 +1568,10 @@
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K17" t="str">
-        <v>9/4/2025, 9:23:33 PM</v>
+        <v>9/7/2025, 11:04:26 AM</v>
       </c>
       <c r="L17" t="str">
-        <v>PATCH /api/user/ban/507f1f77bcf86cd799439011 - Status: 500 (0ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M17" t="str">
         <v>📷 No screenshots</v>
@@ -1600,19 +1600,19 @@
         <v>💻 Frontend</v>
       </c>
       <c r="H18" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I18" t="str">
-        <v>4368ms</v>
+        <v>3466ms</v>
       </c>
       <c r="J18" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K18" t="str">
-        <v>9/4/2025, 9:23:37 PM</v>
+        <v>9/7/2025, 11:04:30 AM</v>
       </c>
       <c r="L18" t="str">
-        <v>Frontend: /member/sign-up - Page loaded with status 200 (4368ms)</v>
+        <v>Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/member/sign-up</v>
       </c>
       <c r="M18" t="str">
         <v>📷 No screenshots</v>
@@ -1641,19 +1641,19 @@
         <v>💻 Frontend</v>
       </c>
       <c r="H19" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I19" t="str">
-        <v>4317ms</v>
+        <v>4892ms</v>
       </c>
       <c r="J19" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K19" t="str">
-        <v>9/4/2025, 9:23:42 PM</v>
+        <v>9/7/2025, 11:04:35 AM</v>
       </c>
       <c r="L19" t="str">
-        <v>Frontend: / - Page loaded with status 200 (4317ms)</v>
+        <v>Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/</v>
       </c>
       <c r="M19" t="str">
         <v>📷 No screenshots</v>
@@ -1682,19 +1682,19 @@
         <v>💻 Frontend</v>
       </c>
       <c r="H20" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I20" t="str">
-        <v>4306ms</v>
+        <v>2678ms</v>
       </c>
       <c r="J20" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K20" t="str">
-        <v>9/4/2025, 9:23:46 PM</v>
+        <v>9/7/2025, 11:04:38 AM</v>
       </c>
       <c r="L20" t="str">
-        <v>Frontend: / - Page loaded with status 200 (4306ms)</v>
+        <v>Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/</v>
       </c>
       <c r="M20" t="str">
         <v>📷 No screenshots</v>
@@ -1723,19 +1723,19 @@
         <v>💻 Frontend</v>
       </c>
       <c r="H21" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I21" t="str">
-        <v>4333ms</v>
+        <v>2666ms</v>
       </c>
       <c r="J21" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K21" t="str">
-        <v>9/4/2025, 9:23:51 PM</v>
+        <v>9/7/2025, 11:04:41 AM</v>
       </c>
       <c r="L21" t="str">
-        <v>Frontend: / - Page loaded with status 200 (4333ms)</v>
+        <v>Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/</v>
       </c>
       <c r="M21" t="str">
         <v>📷 No screenshots</v>
@@ -1764,19 +1764,19 @@
         <v>🖥️ Backend</v>
       </c>
       <c r="H22" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I22" t="str">
-        <v>4ms</v>
+        <v>0ms</v>
       </c>
       <c r="J22" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K22" t="str">
-        <v>9/4/2025, 9:23:51 PM</v>
+        <v>9/7/2025, 11:04:41 AM</v>
       </c>
       <c r="L22" t="str">
-        <v>GET /api/course - Status: 200 (4ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M22" t="str">
         <v>📷 No screenshots</v>
@@ -1805,19 +1805,19 @@
         <v>🖥️ Backend</v>
       </c>
       <c r="H23" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I23" t="str">
-        <v>2ms</v>
+        <v>0ms</v>
       </c>
       <c r="J23" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K23" t="str">
-        <v>9/4/2025, 9:23:51 PM</v>
+        <v>9/7/2025, 11:04:41 AM</v>
       </c>
       <c r="L23" t="str">
-        <v>GET /api/course - Status: 200 (2ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="M23" t="str">
         <v>📷 No screenshots</v>
@@ -1846,19 +1846,19 @@
         <v>🔄 End-to-End</v>
       </c>
       <c r="H24" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
       <c r="I24" t="str">
-        <v>4327ms</v>
+        <v>4968ms</v>
       </c>
       <c r="J24" t="str">
         <v>Automated Test Runner with Real HTTP Requests</v>
       </c>
       <c r="K24" t="str">
-        <v>9/4/2025, 9:23:55 PM</v>
+        <v>9/7/2025, 11:04:46 AM</v>
       </c>
       <c r="L24" t="str">
-        <v>Backend: GET /api/course - Status: 200 (3ms) | Frontend: Frontend: / - Page loaded with status 200 (4324ms)</v>
+        <v>Backend: Backend API Error: Network error: Unable to connect. Is the computer able to access the url? | Frontend: Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/</v>
       </c>
       <c r="M24" t="str">
         <v>📷 No screenshots</v>
@@ -1873,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1926,7 +1926,7 @@
         <v>Total Failed/Blocked Tests</v>
       </c>
       <c r="B4" t="str">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" t="str">
         <v>🔴 High Impact</v>
@@ -1937,7 +1937,7 @@
         <v>❌ Failed Tests</v>
       </c>
       <c r="B5" t="str">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C5" t="str">
         <v>Requires Immediate Fix</v>
@@ -1970,7 +1970,7 @@
         <v>🔥 CRITICAL PRIORITY FAILURES</v>
       </c>
       <c r="B8" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="str">
         <v>URGENT - Production Risk</v>
@@ -1981,7 +1981,7 @@
         <v>🔸 HIGH PRIORITY FAILURES</v>
       </c>
       <c r="B9" t="str">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" t="str">
         <v>Important - User Impact</v>
@@ -2025,7 +2025,7 @@
         <v>Tests without Screenshots</v>
       </c>
       <c r="B13" t="str">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C13" t="str">
         <v>Investigation Required</v>
@@ -2101,10 +2101,10 @@
         <v>❌ Failed</v>
       </c>
       <c r="F18" t="str">
-        <v>GET /api/auth/me - Status: 500 (14ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G18" t="str">
-        <v>14ms</v>
+        <v>0ms</v>
       </c>
       <c r="H18" t="str">
         <v>📷 None</v>
@@ -2127,10 +2127,10 @@
         <v>❌ Failed</v>
       </c>
       <c r="F19" t="str">
-        <v>GET /api/auth/me - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G19" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="H19" t="str">
         <v>📷 None</v>
@@ -2153,10 +2153,10 @@
         <v>❌ Failed</v>
       </c>
       <c r="F20" t="str">
-        <v>POST /api/auth/sign-in - Status: 422 (2ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G20" t="str">
-        <v>2ms</v>
+        <v>0ms</v>
       </c>
       <c r="H20" t="str">
         <v>📷 None</v>
@@ -2164,25 +2164,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>xams-auth-005</v>
+        <v>xams-auth-004</v>
       </c>
       <c r="B21" t="str">
-        <v>User Profile Retrieval</v>
+        <v>Password Reset Workflow</v>
       </c>
       <c r="C21" t="str">
         <v>XAMS Authentication Suite</v>
       </c>
       <c r="D21" t="str">
-        <v>🔹 Medium</v>
+        <v>🔸 High</v>
       </c>
       <c r="E21" t="str">
         <v>❌ Failed</v>
       </c>
       <c r="F21" t="str">
-        <v>GET /api/auth/me - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G21" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="H21" t="str">
         <v>📷 None</v>
@@ -2190,25 +2190,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>xams-course-001</v>
+        <v>xams-auth-005</v>
       </c>
       <c r="B22" t="str">
-        <v>Create Course with Mathematics Category</v>
+        <v>User Profile Retrieval</v>
       </c>
       <c r="C22" t="str">
-        <v>XAMS Course Management Suite</v>
+        <v>XAMS Authentication Suite</v>
       </c>
       <c r="D22" t="str">
-        <v>🔸 High</v>
+        <v>🔹 Medium</v>
       </c>
       <c r="E22" t="str">
         <v>❌ Failed</v>
       </c>
       <c r="F22" t="str">
-        <v>POST /api/course - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G22" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="H22" t="str">
         <v>📷 None</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>xams-course-003</v>
+        <v>xams-course-001</v>
       </c>
       <c r="B23" t="str">
-        <v>Create Course Group with Join Code</v>
+        <v>Create Course with Mathematics Category</v>
       </c>
       <c r="C23" t="str">
         <v>XAMS Course Management Suite</v>
@@ -2231,10 +2231,10 @@
         <v>❌ Failed</v>
       </c>
       <c r="F23" t="str">
-        <v>POST /api/course - Status: 500 (3ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G23" t="str">
-        <v>3ms</v>
+        <v>0ms</v>
       </c>
       <c r="H23" t="str">
         <v>📷 None</v>
@@ -2242,25 +2242,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>xams-course-004</v>
+        <v>xams-course-002</v>
       </c>
       <c r="B24" t="str">
-        <v>Update Course Information</v>
+        <v>Public Course Listing with Search</v>
       </c>
       <c r="C24" t="str">
         <v>XAMS Course Management Suite</v>
       </c>
       <c r="D24" t="str">
-        <v>🔹 Medium</v>
+        <v>🔸 High</v>
       </c>
       <c r="E24" t="str">
         <v>❌ Failed</v>
       </c>
       <c r="F24" t="str">
-        <v>PATCH /api/course/507f1f77bcf86cd799439011 - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G24" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="H24" t="str">
         <v>📷 None</v>
@@ -2268,25 +2268,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>xams-course-005</v>
+        <v>xams-course-003</v>
       </c>
       <c r="B25" t="str">
-        <v>Delete Course</v>
+        <v>Create Course Group with Join Code</v>
       </c>
       <c r="C25" t="str">
         <v>XAMS Course Management Suite</v>
       </c>
       <c r="D25" t="str">
-        <v>🔹 Medium</v>
+        <v>🔸 High</v>
       </c>
       <c r="E25" t="str">
         <v>❌ Failed</v>
       </c>
       <c r="F25" t="str">
-        <v>DELETE /api/course/507f1f77bcf86cd799439011 - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G25" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="H25" t="str">
         <v>📷 None</v>
@@ -2294,25 +2294,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>xams-user-001</v>
+        <v>xams-course-004</v>
       </c>
       <c r="B26" t="str">
-        <v>Admin Get All Users</v>
+        <v>Update Course Information</v>
       </c>
       <c r="C26" t="str">
-        <v>XAMS User Management Suite</v>
+        <v>XAMS Course Management Suite</v>
       </c>
       <c r="D26" t="str">
-        <v>🔸 High</v>
+        <v>🔹 Medium</v>
       </c>
       <c r="E26" t="str">
         <v>❌ Failed</v>
       </c>
       <c r="F26" t="str">
-        <v>GET /api/user - Status: 500 (1ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G26" t="str">
-        <v>1ms</v>
+        <v>0ms</v>
       </c>
       <c r="H26" t="str">
         <v>📷 None</v>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>xams-user-002</v>
+        <v>xams-course-005</v>
       </c>
       <c r="B27" t="str">
-        <v>Update User Profile</v>
+        <v>Delete Course</v>
       </c>
       <c r="C27" t="str">
-        <v>XAMS User Management Suite</v>
+        <v>XAMS Course Management Suite</v>
       </c>
       <c r="D27" t="str">
         <v>🔹 Medium</v>
@@ -2335,7 +2335,7 @@
         <v>❌ Failed</v>
       </c>
       <c r="F27" t="str">
-        <v>PATCH /api/user/507f1f77bcf86cd799439011 - Status: 500 (0ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G27" t="str">
         <v>0ms</v>
@@ -2346,22 +2346,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>xams-user-003</v>
+        <v>xams-exam-001</v>
       </c>
       <c r="B28" t="str">
-        <v>Ban User with Reason and Duration</v>
+        <v>Create Multiple Choice Examination</v>
       </c>
       <c r="C28" t="str">
-        <v>XAMS User Management Suite</v>
+        <v>XAMS Examination Suite</v>
       </c>
       <c r="D28" t="str">
-        <v>🔸 High</v>
+        <v>🔥 Critical</v>
       </c>
       <c r="E28" t="str">
         <v>❌ Failed</v>
       </c>
       <c r="F28" t="str">
-        <v>PATCH /api/user/ban/507f1f77bcf86cd799439011 - Status: 500 (0ms)</v>
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
       </c>
       <c r="G28" t="str">
         <v>0ms</v>
@@ -2370,9 +2370,321 @@
         <v>📷 None</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>xams-exam-002</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Create Essay Questions with AI Grading</v>
+      </c>
+      <c r="C29" t="str">
+        <v>XAMS Examination Suite</v>
+      </c>
+      <c r="D29" t="str">
+        <v>🔸 High</v>
+      </c>
+      <c r="E29" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
+      </c>
+      <c r="G29" t="str">
+        <v>0ms</v>
+      </c>
+      <c r="H29" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>xams-exam-003</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Create Exam Schedule with Security Settings</v>
+      </c>
+      <c r="C30" t="str">
+        <v>XAMS Examination Suite</v>
+      </c>
+      <c r="D30" t="str">
+        <v>🔥 Critical</v>
+      </c>
+      <c r="E30" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0ms</v>
+      </c>
+      <c r="H30" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>xams-user-001</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Admin Get All Users</v>
+      </c>
+      <c r="C31" t="str">
+        <v>XAMS User Management Suite</v>
+      </c>
+      <c r="D31" t="str">
+        <v>🔸 High</v>
+      </c>
+      <c r="E31" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
+      </c>
+      <c r="G31" t="str">
+        <v>0ms</v>
+      </c>
+      <c r="H31" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>xams-user-002</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Update User Profile</v>
+      </c>
+      <c r="C32" t="str">
+        <v>XAMS User Management Suite</v>
+      </c>
+      <c r="D32" t="str">
+        <v>🔹 Medium</v>
+      </c>
+      <c r="E32" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
+      </c>
+      <c r="G32" t="str">
+        <v>0ms</v>
+      </c>
+      <c r="H32" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>xams-user-003</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Ban User with Reason and Duration</v>
+      </c>
+      <c r="C33" t="str">
+        <v>XAMS User Management Suite</v>
+      </c>
+      <c r="D33" t="str">
+        <v>🔸 High</v>
+      </c>
+      <c r="E33" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
+      </c>
+      <c r="G33" t="str">
+        <v>0ms</v>
+      </c>
+      <c r="H33" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>xams-frontend-001</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Sign-up Page Functionality</v>
+      </c>
+      <c r="C34" t="str">
+        <v>XAMS Frontend Testing Suite</v>
+      </c>
+      <c r="D34" t="str">
+        <v>🔸 High</v>
+      </c>
+      <c r="E34" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/member/sign-up</v>
+      </c>
+      <c r="G34" t="str">
+        <v>3466ms</v>
+      </c>
+      <c r="H34" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>xams-frontend-002</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Course Exploration Interface</v>
+      </c>
+      <c r="C35" t="str">
+        <v>XAMS Frontend Testing Suite</v>
+      </c>
+      <c r="D35" t="str">
+        <v>🔸 High</v>
+      </c>
+      <c r="E35" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/</v>
+      </c>
+      <c r="G35" t="str">
+        <v>4892ms</v>
+      </c>
+      <c r="H35" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>xams-frontend-003</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Teacher Dashboard Access</v>
+      </c>
+      <c r="C36" t="str">
+        <v>XAMS Frontend Testing Suite</v>
+      </c>
+      <c r="D36" t="str">
+        <v>🔸 High</v>
+      </c>
+      <c r="E36" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/</v>
+      </c>
+      <c r="G36" t="str">
+        <v>2678ms</v>
+      </c>
+      <c r="H36" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>xams-frontend-004</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Student Exam Taking Interface</v>
+      </c>
+      <c r="C37" t="str">
+        <v>XAMS Frontend Testing Suite</v>
+      </c>
+      <c r="D37" t="str">
+        <v>🔥 Critical</v>
+      </c>
+      <c r="E37" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/</v>
+      </c>
+      <c r="G37" t="str">
+        <v>2666ms</v>
+      </c>
+      <c r="H37" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>xams-security-001</v>
+      </c>
+      <c r="B38" t="str">
+        <v>JWT Token Security Validation</v>
+      </c>
+      <c r="C38" t="str">
+        <v>XAMS Security Testing Suite</v>
+      </c>
+      <c r="D38" t="str">
+        <v>🔥 Critical</v>
+      </c>
+      <c r="E38" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
+      </c>
+      <c r="G38" t="str">
+        <v>0ms</v>
+      </c>
+      <c r="H38" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>xams-security-002</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Form Input Sanitization</v>
+      </c>
+      <c r="C39" t="str">
+        <v>XAMS Security Testing Suite</v>
+      </c>
+      <c r="D39" t="str">
+        <v>🔸 High</v>
+      </c>
+      <c r="E39" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Backend API Error: Network error: Unable to connect. Is the computer able to access the url?</v>
+      </c>
+      <c r="G39" t="str">
+        <v>0ms</v>
+      </c>
+      <c r="H39" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>xams-integration-001</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Complete Course and Exam Lifecycle</v>
+      </c>
+      <c r="C40" t="str">
+        <v>XAMS Integration Testing Suite</v>
+      </c>
+      <c r="D40" t="str">
+        <v>🔥 Critical</v>
+      </c>
+      <c r="E40" t="str">
+        <v>❌ Failed</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Backend: Backend API Error: Network error: Unable to connect. Is the computer able to access the url? | Frontend: Frontend Error: net::ERR_CONNECTION_REFUSED at http://127.0.0.1:8080/</v>
+      </c>
+      <c r="G40" t="str">
+        <v>4968ms</v>
+      </c>
+      <c r="H40" t="str">
+        <v>📷 None</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H40"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4290,7 +4602,7 @@
         <v>Reset token generated</v>
       </c>
       <c r="H12" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="13">
@@ -4316,7 +4628,7 @@
         <v>Password updated successfully</v>
       </c>
       <c r="H13" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="14">
@@ -4524,7 +4836,7 @@
         <v>Public courses returned</v>
       </c>
       <c r="H21" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="22">
@@ -4550,7 +4862,7 @@
         <v>Filtered results returned</v>
       </c>
       <c r="H22" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="23">
@@ -4836,7 +5148,7 @@
         <v>Exam created with MC questions</v>
       </c>
       <c r="H33" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="34">
@@ -4862,7 +5174,7 @@
         <v>Exam listed in GET /api/exam</v>
       </c>
       <c r="H34" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="35">
@@ -4914,7 +5226,7 @@
         <v>Essay exam created</v>
       </c>
       <c r="H36" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="37">
@@ -4940,7 +5252,7 @@
         <v>AI grading configuration saved</v>
       </c>
       <c r="H37" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="38">
@@ -4992,7 +5304,7 @@
         <v>Exam schedule created</v>
       </c>
       <c r="H39" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="40">
@@ -5018,7 +5330,7 @@
         <v>IP and time restrictions active</v>
       </c>
       <c r="H40" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="41">
@@ -5304,7 +5616,7 @@
         <v>Sign-up page loads</v>
       </c>
       <c r="H51" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="52">
@@ -5330,7 +5642,7 @@
         <v>Form submission successful</v>
       </c>
       <c r="H52" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="53">
@@ -5382,7 +5694,7 @@
         <v>Course list displayed</v>
       </c>
       <c r="H54" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="55">
@@ -5408,7 +5720,7 @@
         <v>Search results filtered correctly</v>
       </c>
       <c r="H55" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="56">
@@ -5460,7 +5772,7 @@
         <v>Teacher dashboard loads</v>
       </c>
       <c r="H57" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="58">
@@ -5486,7 +5798,7 @@
         <v>Course creation tools available</v>
       </c>
       <c r="H58" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="59">
@@ -5538,7 +5850,7 @@
         <v>Exam interface loads</v>
       </c>
       <c r="H60" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="61">
@@ -5564,7 +5876,7 @@
         <v>Submission successful</v>
       </c>
       <c r="H61" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="62">
@@ -5642,7 +5954,7 @@
         <v>Access denied</v>
       </c>
       <c r="H64" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="65">
@@ -5668,7 +5980,7 @@
         <v>Token rejected</v>
       </c>
       <c r="H65" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="66">
@@ -5720,7 +6032,7 @@
         <v>Input rejected with proper error</v>
       </c>
       <c r="H67" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="68">
@@ -5746,7 +6058,7 @@
         <v>XSS attempts sanitized</v>
       </c>
       <c r="H68" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="69">
@@ -5824,7 +6136,7 @@
         <v>Course created</v>
       </c>
       <c r="H71" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="72">
@@ -5850,7 +6162,7 @@
         <v>Exam scheduled</v>
       </c>
       <c r="H72" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="73">
@@ -5876,7 +6188,7 @@
         <v>Exam completed</v>
       </c>
       <c r="H73" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="74">
@@ -5902,7 +6214,7 @@
         <v>Results properly calculated</v>
       </c>
       <c r="H74" t="str">
-        <v>✅ Pass</v>
+        <v>❌ Fail</v>
       </c>
     </row>
     <row r="75">
